--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1114601.21209795</v>
+        <v>-1117461.04433322</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,73 +659,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>122.1303703629392</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>125.4713171199747</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>77.08171901666373</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>28.01471784283717</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="D2" t="n">
+      <c r="Y2" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>158.2964914343832</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>119.9567796044664</v>
+      </c>
+      <c r="X3" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="V3" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="W3" t="n">
-        <v>127.2603817884558</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.66122993614</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489922</v>
+        <v>381.7114248337748</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>363.115948771731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>103.3822960253185</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.8024773971665</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.99985954238355</v>
       </c>
       <c r="S6" t="n">
         <v>143.0590333442028</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>68.63614893478015</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>120.4997808249595</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>50.53060049107611</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>17.23788768878753</v>
+        <v>58.7542817122408</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>93.21114789495373</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>15.75635913334969</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>157.7012470437267</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>107.132332998817</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986323</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>153.2646806878225</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.458642397728176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>61.66004604095001</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>20.66101211578912</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>179.6926686226135</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.97607332171654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,13 +2555,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701334</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>37.41782514684017</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>134.0367616438387</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>62.18842302760083</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.96996784159862</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>590.2069027719637</v>
+        <v>265.1047616025115</v>
       </c>
       <c r="C2" t="n">
-        <v>400.7871177554788</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="D2" t="n">
-        <v>211.3673327389939</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389939</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123833</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262258</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262258</v>
       </c>
       <c r="T2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262258</v>
       </c>
       <c r="U2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262258</v>
       </c>
       <c r="V2" t="n">
-        <v>750.10234866528</v>
+        <v>643.9443316354813</v>
       </c>
       <c r="W2" t="n">
-        <v>750.10234866528</v>
+        <v>643.9443316354813</v>
       </c>
       <c r="X2" t="n">
-        <v>750.10234866528</v>
+        <v>454.5245466189964</v>
       </c>
       <c r="Y2" t="n">
-        <v>590.2069027719637</v>
+        <v>265.1047616025115</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.50160142188287</v>
+        <v>366.3495583630079</v>
       </c>
       <c r="C3" t="n">
-        <v>74.50160142188287</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.5366136729605</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
@@ -4428,31 +4428,31 @@
         <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487952</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323103</v>
+        <v>676.9378076264285</v>
       </c>
       <c r="W3" t="n">
-        <v>242.7169384419509</v>
+        <v>555.7693433794927</v>
       </c>
       <c r="X3" t="n">
-        <v>242.7169384419509</v>
+        <v>366.3495583630079</v>
       </c>
       <c r="Y3" t="n">
-        <v>242.7169384419509</v>
+        <v>366.3495583630079</v>
       </c>
     </row>
     <row r="4">
@@ -4492,43 +4492,43 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
         <v>15.0020469733056</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.3346382214581</v>
+        <v>1177.876264474442</v>
       </c>
       <c r="C5" t="n">
-        <v>408.3721212810464</v>
+        <v>808.9137475340306</v>
       </c>
       <c r="D5" t="n">
-        <v>50.10642267429591</v>
+        <v>808.9137475340306</v>
       </c>
       <c r="E5" t="n">
-        <v>50.10642267429591</v>
+        <v>423.1254949357863</v>
       </c>
       <c r="F5" t="n">
-        <v>43.16092192509244</v>
+        <v>416.1799941865829</v>
       </c>
       <c r="G5" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="H5" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="I5" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121541</v>
+        <v>93.3858082712149</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235858</v>
+        <v>238.204646223584</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190655</v>
+        <v>454.7669823190631</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643102</v>
+        <v>727.4037457643074</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453893</v>
+        <v>1009.065865453889</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831935</v>
+        <v>1261.696156831931</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855778</v>
+        <v>1442.809264855774</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.64491974456</v>
+        <v>1530.644919744556</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.64491974456</v>
+        <v>1530.644919744556</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.64491974456</v>
+        <v>1530.644919744556</v>
       </c>
       <c r="T5" t="n">
-        <v>1530.64491974456</v>
+        <v>1530.644919744556</v>
       </c>
       <c r="U5" t="n">
-        <v>1530.64491974456</v>
+        <v>1530.644919744556</v>
       </c>
       <c r="V5" t="n">
-        <v>1530.64491974456</v>
+        <v>1530.644919744556</v>
       </c>
       <c r="W5" t="n">
-        <v>1530.64491974456</v>
+        <v>1177.876264474442</v>
       </c>
       <c r="X5" t="n">
-        <v>1530.64491974456</v>
+        <v>1177.876264474442</v>
       </c>
       <c r="Y5" t="n">
-        <v>1163.861133106448</v>
+        <v>1177.876264474442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272.2136796297245</v>
+        <v>622.4935406278105</v>
       </c>
       <c r="C6" t="n">
-        <v>167.7871179879887</v>
+        <v>622.4935406278105</v>
       </c>
       <c r="D6" t="n">
-        <v>167.7871179879887</v>
+        <v>473.5591309665592</v>
       </c>
       <c r="E6" t="n">
-        <v>167.7871179879887</v>
+        <v>314.3216759611037</v>
       </c>
       <c r="F6" t="n">
-        <v>167.7871179879887</v>
+        <v>167.7871179879886</v>
       </c>
       <c r="G6" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="H6" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275302</v>
+        <v>49.18216652275281</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477049</v>
+        <v>159.0748281477045</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543719</v>
+        <v>353.1616144543711</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642238</v>
+        <v>599.0086077642227</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621751</v>
+        <v>865.7710843621735</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970546</v>
+        <v>1087.586838970544</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.28047142285</v>
+        <v>1246.280471422848</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680488</v>
+        <v>1302.443765680486</v>
       </c>
       <c r="R6" t="n">
-        <v>1302.443765680488</v>
+        <v>1251.938857051815</v>
       </c>
       <c r="S6" t="n">
-        <v>1157.939691595434</v>
+        <v>1107.434782966762</v>
       </c>
       <c r="T6" t="n">
-        <v>1157.939691595434</v>
+        <v>1038.105339598297</v>
       </c>
       <c r="U6" t="n">
-        <v>929.8184816097369</v>
+        <v>1038.105339598297</v>
       </c>
       <c r="V6" t="n">
-        <v>694.6663733779942</v>
+        <v>1038.105339598297</v>
       </c>
       <c r="W6" t="n">
-        <v>440.4290166497926</v>
+        <v>1038.105339598297</v>
       </c>
       <c r="X6" t="n">
-        <v>440.4290166497926</v>
+        <v>830.2538393927643</v>
       </c>
       <c r="Y6" t="n">
-        <v>440.4290166497926</v>
+        <v>622.4935406278105</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.4464881354689</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="C7" t="n">
-        <v>180.7295378072269</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="D7" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="E7" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="F7" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="G7" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="H7" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="I7" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="J7" t="n">
-        <v>30.6128983948912</v>
+        <v>30.61289839489113</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713253</v>
+        <v>51.49054881713232</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363484</v>
+        <v>108.112551136348</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055984</v>
+        <v>171.0707966055978</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221355</v>
+        <v>240.3895616221347</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645246</v>
+        <v>284.1035717645237</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354689</v>
+        <v>302.4464881354678</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354689</v>
+        <v>302.4464881354678</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354689</v>
+        <v>302.4464881354678</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354689</v>
+        <v>302.4464881354678</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354689</v>
+        <v>302.4464881354678</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354689</v>
+        <v>302.4464881354678</v>
       </c>
       <c r="V7" t="n">
-        <v>302.4464881354689</v>
+        <v>302.4464881354678</v>
       </c>
       <c r="W7" t="n">
-        <v>302.4464881354689</v>
+        <v>251.4054775384212</v>
       </c>
       <c r="X7" t="n">
-        <v>302.4464881354689</v>
+        <v>251.4054775384212</v>
       </c>
       <c r="Y7" t="n">
-        <v>302.4464881354689</v>
+        <v>30.61289839489113</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>857.5553616923969</v>
+        <v>978.4442511878881</v>
       </c>
       <c r="C8" t="n">
-        <v>857.5553616923969</v>
+        <v>978.4442511878881</v>
       </c>
       <c r="D8" t="n">
-        <v>857.5553616923969</v>
+        <v>978.4442511878881</v>
       </c>
       <c r="E8" t="n">
-        <v>471.7671090941527</v>
+        <v>592.6559985896438</v>
       </c>
       <c r="F8" t="n">
-        <v>60.7812043045451</v>
+        <v>181.6700938000362</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809305</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809305</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904652</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567162</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.789775223591</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="W8" t="n">
-        <v>1231.021119953477</v>
+        <v>1351.910009448968</v>
       </c>
       <c r="X8" t="n">
-        <v>857.5553616923969</v>
+        <v>978.4442511878881</v>
       </c>
       <c r="Y8" t="n">
-        <v>857.5553616923969</v>
+        <v>978.4442511878881</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>745.6225541696373</v>
+        <v>861.2257834030593</v>
       </c>
       <c r="C9" t="n">
-        <v>571.1695248885103</v>
+        <v>767.0731087616919</v>
       </c>
       <c r="D9" t="n">
-        <v>422.235115227259</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E9" t="n">
-        <v>422.235115227259</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809305</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835205</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.552065309181</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1204.450475442445</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="V9" t="n">
-        <v>969.2983672107021</v>
+        <v>1531.074939101748</v>
       </c>
       <c r="W9" t="n">
-        <v>953.3828529345913</v>
+        <v>1276.837582373546</v>
       </c>
       <c r="X9" t="n">
-        <v>953.3828529345913</v>
+        <v>1068.986082168013</v>
       </c>
       <c r="Y9" t="n">
-        <v>745.6225541696373</v>
+        <v>861.2257834030593</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.2822901204862</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="C10" t="n">
-        <v>191.2822901204862</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="D10" t="n">
-        <v>191.2822901204862</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809305</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="T10" t="n">
-        <v>412.0748692640162</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="U10" t="n">
-        <v>412.0748692640162</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="V10" t="n">
-        <v>412.0748692640162</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="W10" t="n">
-        <v>412.0748692640162</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="X10" t="n">
-        <v>412.0748692640162</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.2822901204862</v>
+        <v>497.4664265514538</v>
       </c>
     </row>
     <row r="11">
@@ -5033,37 +5033,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3194.624135499471</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>3025.687952571559</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>2875.571313159224</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>2875.571313159224</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>2728.681365661314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>4440.932614305901</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>4151.857387650099</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>3897.172899444212</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>3607.755729407251</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>3379.766178509234</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y13" t="n">
-        <v>3376.272600329711</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925226</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>297.8113689946122</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>297.8113689946122</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>156.0995378368103</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5601,16 +5601,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5835,19 +5835,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5987,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6251,22 +6251,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900017</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
         <v>549.6145409888043</v>
@@ -6661,10 +6661,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
         <v>782.551295565682</v>
@@ -6847,7 +6847,7 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6862,7 +6862,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7503,13 +7503,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>93.13592258111009</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>299.7375406272977</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -22717,10 +22717,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22729,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>234.0491352390158</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856647</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>72.44497470121462</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.1260109543666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>19.60579027761551</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>205.048643273248</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.89198472948132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>0.9259388694757718</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>152.1477127454055</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>84.24553961896834</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.6146855104962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-3.430589273777491e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943218</v>
+        <v>169252.1408943217</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26332,22 +26332,22 @@
         <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
         <v>205260.442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996516</v>
+        <v>216004.0468996506</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960604</v>
+        <v>167084.5112960625</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.6701083831</v>
+        <v>50221.67010838279</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064545</v>
+        <v>59784.02116064603</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>196327.1528969923</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468113</v>
+        <v>221112.0537468116</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687956</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26433,31 +26433,31 @@
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687969</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687975</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687967</v>
-      </c>
       <c r="L4" t="n">
+        <v>23427.49926997311</v>
+      </c>
+      <c r="M4" t="n">
         <v>23427.49926997314</v>
       </c>
-      <c r="M4" t="n">
-        <v>23427.49926997315</v>
-      </c>
       <c r="N4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="O4" t="n">
         <v>23427.49926997314</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997315</v>
+        <v>23427.49926997316</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790115</v>
+        <v>72511.97598790108</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-675417.7149351295</v>
+        <v>-675777.7979508472</v>
       </c>
       <c r="C6" t="n">
-        <v>-304367.6341682933</v>
+        <v>-304367.6341682924</v>
       </c>
       <c r="D6" t="n">
-        <v>-221226.1407747596</v>
+        <v>-221226.1407747614</v>
       </c>
       <c r="E6" t="n">
-        <v>-516215.7274825505</v>
+        <v>-516250.465407985</v>
       </c>
       <c r="F6" t="n">
-        <v>85227.48009171475</v>
+        <v>85192.74216627909</v>
       </c>
       <c r="G6" t="n">
-        <v>85227.48009171496</v>
+        <v>85192.74216627912</v>
       </c>
       <c r="H6" t="n">
-        <v>85227.48009171475</v>
+        <v>85192.74216627909</v>
       </c>
       <c r="I6" t="n">
-        <v>85227.48009171472</v>
+        <v>85192.74216627909</v>
       </c>
       <c r="J6" t="n">
-        <v>36162.53536317011</v>
+        <v>36127.79743773444</v>
       </c>
       <c r="K6" t="n">
-        <v>35005.80998333164</v>
+        <v>34971.07205789626</v>
       </c>
       <c r="L6" t="n">
-        <v>18884.80618153699</v>
+        <v>18884.80618153643</v>
       </c>
       <c r="M6" t="n">
-        <v>-78477.55320941551</v>
+        <v>-78477.55320941508</v>
       </c>
       <c r="N6" t="n">
-        <v>78668.82734218234</v>
+        <v>78668.82734218243</v>
       </c>
       <c r="O6" t="n">
-        <v>78668.82734218231</v>
+        <v>78668.8273421824</v>
       </c>
       <c r="P6" t="n">
-        <v>78668.8273421824</v>
+        <v>78668.82734218237</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836626</v>
+        <v>716.4483122836619</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>382.66122993614</v>
+        <v>382.6612299361391</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707579</v>
+        <v>167.9783713707571</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540215</v>
+        <v>137.2623522540232</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>195.13564276982</v>
+        <v>195.135642769819</v>
       </c>
       <c r="D4" t="n">
-        <v>159.453726790023</v>
+        <v>159.4537267900252</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734855</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698203</v>
+        <v>195.135642769819</v>
       </c>
       <c r="L4" t="n">
-        <v>159.453726790023</v>
+        <v>159.4537267900252</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734855</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.13564276982</v>
+        <v>195.135642769819</v>
       </c>
       <c r="L4" t="n">
-        <v>159.453726790023</v>
+        <v>159.4537267900252</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734855</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>84.61138202357745</v>
+        <v>243.1425214080684</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.9414472216704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27512,16 +27512,16 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377092</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>124.4346013724638</v>
+        <v>131.7382035564532</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715744</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,19 +27549,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,22 +27588,22 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>166.3687070976601</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07261172734052934</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>30.71111846112444</v>
       </c>
       <c r="H5" t="n">
         <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476406</v>
+        <v>99.43720189476417</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724315</v>
+        <v>34.66253762724332</v>
       </c>
       <c r="S5" t="n">
         <v>143.3876437926214</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.1219898843226</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>69.32620296299729</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>97.35224439075472</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295516</v>
+        <v>46.46465121295521</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238346</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>125.317108071469</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>46.7470402736683</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037442</v>
+        <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037901</v>
+        <v>35.65413415037909</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461278</v>
+        <v>43.3213064746129</v>
       </c>
       <c r="R7" t="n">
         <v>119.2023528106942</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>235.9923978455149</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>394.6328471548393</v>
+        <v>353.116453131386</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27932,13 +27932,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>79.49735109336201</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>235.9386240275699</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>9.545574054901181</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>114.2354857354856</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.668188306340898e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29275,22 +29275,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29326,13 +29326,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235827</v>
+        <v>2.880194220235825</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799017</v>
+        <v>29.49678905799015</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756419</v>
+        <v>111.0386876756417</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997408</v>
+        <v>244.4528841997406</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423235</v>
+        <v>366.3715055423231</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098657</v>
+        <v>454.5162494098653</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739846</v>
+        <v>505.7369033739841</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022297</v>
+        <v>513.9202552022292</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247597</v>
+        <v>485.2803239247592</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126876</v>
+        <v>414.1755291126872</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004919</v>
+        <v>311.0285736004917</v>
       </c>
       <c r="R5" t="n">
-        <v>180.923000186889</v>
+        <v>180.9230001868888</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362398</v>
+        <v>65.63242579362392</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908234</v>
+        <v>12.60805019908233</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188662</v>
+        <v>0.2304155376188659</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044105</v>
+        <v>1.541039766044103</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574175</v>
+        <v>14.88319984574174</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704484</v>
+        <v>53.05772878704479</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594564</v>
+        <v>145.5944631594563</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844114</v>
+        <v>248.8441274844112</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754974</v>
+        <v>334.601638675497</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945961</v>
+        <v>390.4643301945957</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519709</v>
+        <v>400.7987591519705</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306778</v>
+        <v>366.6525622306775</v>
       </c>
       <c r="P6" t="n">
-        <v>294.271005851001</v>
+        <v>294.2710058510007</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462615</v>
+        <v>196.7123743462613</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158049</v>
+        <v>95.67964442158041</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963499</v>
+        <v>28.62413775963497</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572507</v>
+        <v>6.211471688572501</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344806</v>
+        <v>0.1013841951344805</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970539</v>
+        <v>1.291955972970538</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513807</v>
+        <v>11.48666310513806</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351404</v>
+        <v>38.852639623514</v>
       </c>
       <c r="J7" t="n">
-        <v>91.3412872890171</v>
+        <v>91.34128728901702</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505771</v>
+        <v>150.101793950577</v>
       </c>
       <c r="L7" t="n">
-        <v>192.07861801782</v>
+        <v>192.0786180178198</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902818</v>
+        <v>202.5199712902816</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273918</v>
+        <v>197.7044990273916</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522359</v>
+        <v>182.6121042522357</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036368</v>
+        <v>156.2562024036366</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548331</v>
+        <v>108.1836951548329</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647531</v>
+        <v>58.09103856647526</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258657</v>
+        <v>22.51526909258655</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52017552087412</v>
+        <v>5.520175520874115</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839312</v>
+        <v>0.07047032579839305</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>537.2623544349631</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>338.6542681503486</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>663.4727207607269</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,13 +32786,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>150.7833302198383</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>531.8166820790245</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,13 +34445,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305451</v>
+        <v>63.40697967305428</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973429</v>
+        <v>146.2816544973425</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398785</v>
+        <v>218.749834439878</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467118</v>
+        <v>275.3906701467114</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056388</v>
+        <v>284.5071916056383</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030729</v>
+        <v>255.1821125030725</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574181</v>
+        <v>182.9425333574177</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604245</v>
+        <v>88.72288372604217</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278972</v>
+        <v>18.75683649278957</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100524</v>
+        <v>111.0026885100522</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956232</v>
+        <v>196.0472588956229</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725778</v>
+        <v>248.3302962725774</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686376</v>
+        <v>269.4570470686372</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862334</v>
+        <v>224.056317786233</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366708</v>
+        <v>160.2965984366705</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023998</v>
+        <v>56.73060026023981</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004175</v>
+        <v>21.08853578004161</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658171</v>
+        <v>57.19394173658154</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267678</v>
+        <v>63.59418734267658</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215863</v>
+        <v>70.01895456215843</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039311</v>
+        <v>44.15556580039294</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448915</v>
+        <v>18.52819835448901</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>394.6661099905186</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>196.0580237059041</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>520.8764763162825</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>393.2623022991504</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38093,13 +38093,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
